--- a/CO.xlsx
+++ b/CO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Activities</t>
   </si>
@@ -33,20 +33,29 @@
   <si>
     <t xml:space="preserve">Research of how to improve the student information system </t>
   </si>
+  <si>
+    <t>Downloaded and installed project libre</t>
+  </si>
+  <si>
+    <t>Exploring project libre</t>
+  </si>
+  <si>
+    <t>Research about gantt chart hotel management system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +67,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,23 +79,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,59 +109,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,24 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +185,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,21 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,6 +435,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -462,8 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,8 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +513,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,139 +531,150 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -986,53 +999,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="54.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="21.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="21.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="20.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="54.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>43712</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43712</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.895833333333333</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>0.979166666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43731</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43731</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.627083333333333</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.631944444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43731</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43731</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43732</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43732</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.584722222222222</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.633333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/CO.xlsx
+++ b/CO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Activities</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Introduction in documentation (Chapter 1)</t>
+  </si>
+  <si>
+    <t>Chapter 1 still on process</t>
   </si>
 </sst>
 </file>
@@ -51,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -94,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -496,6 +499,23 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43755</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43755</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
